--- a/publication.xlsx
+++ b/publication.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOC\UC\PDS_Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BEE79D0-5764-4D84-93A5-DD817D8B2EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFBFA55-7F36-4DA7-BDCD-0CCE72221DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{018B3E02-EAF8-465C-A9DA-70C6FF6C7471}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="645">
   <si>
     <t>Enterprise resource planning adoption and satisfaction determinants</t>
   </si>
@@ -1963,6 +1963,15 @@
   </si>
   <si>
     <t>Proceedings of Fifteenth International Conference on Systems Engineering …</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -2343,10 +2352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F475F853-18A7-4BFA-BCAC-4C3FD6103A00}">
-  <dimension ref="A1:C255"/>
+  <dimension ref="A1:C256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A255" sqref="A255"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,22 +2366,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
-        <v>288</v>
-      </c>
-      <c r="C1" s="5">
-        <v>2016</v>
+      <c r="A1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="C2" s="5">
         <v>2016</v>
@@ -2380,10 +2389,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C3" s="5">
         <v>2016</v>
@@ -2391,362 +2400,362 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="C4" s="5">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C5" s="5">
-        <v>2019</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C6" s="5">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="C7" s="5">
-        <v>2015</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="C8" s="5">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C9" s="5">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C10" s="5">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="C11" s="5">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C12" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C13" s="5">
-        <v>2012</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C14" s="5">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3">
         <v>68</v>
       </c>
       <c r="C15" s="5">
-        <v>2020</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B16" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="5">
-        <v>2013</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" s="5">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C18" s="5">
-        <v>2017</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B19" s="3">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C19" s="5">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B20" s="3">
         <v>61</v>
       </c>
       <c r="C20" s="5">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B21" s="3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" s="5">
-        <v>2014</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="3">
         <v>59</v>
       </c>
-      <c r="B22" s="3">
-        <v>47</v>
-      </c>
       <c r="C22" s="5">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B23" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="5">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B24" s="3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C24" s="5">
-        <v>2010</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B25" s="3">
         <v>43</v>
       </c>
       <c r="C25" s="5">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26" s="3">
         <v>43</v>
       </c>
       <c r="C26" s="5">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B27" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="5">
-        <v>2022</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="5">
-        <v>40</v>
+        <v>71</v>
+      </c>
+      <c r="B28" s="3">
+        <v>42</v>
       </c>
       <c r="C28" s="5">
-        <v>2017</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="3">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="B29" s="5">
+        <v>40</v>
       </c>
       <c r="C29" s="5">
-        <v>2011</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B30" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="5">
-        <v>2019</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B31" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="5">
-        <v>2015</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B32" s="3">
         <v>37</v>
       </c>
       <c r="C32" s="5">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B33" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" s="5">
-        <v>2012</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B34" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C34" s="5">
-        <v>2007</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B35" s="3">
         <v>34</v>
       </c>
       <c r="C35" s="5">
-        <v>2012</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B36" s="3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C36" s="5">
         <v>2012</v>
@@ -2754,40 +2763,40 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B37" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" s="5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B38" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C38" s="5">
-        <v>2007</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B39" s="3">
         <v>27</v>
       </c>
       <c r="C39" s="5">
-        <v>2020</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B40" s="3">
         <v>27</v>
@@ -2798,139 +2807,139 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B41" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C41" s="5">
-        <v>2003</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B42" s="3">
         <v>25</v>
       </c>
       <c r="C42" s="5">
-        <v>2006</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="5">
-        <v>24</v>
+        <v>113</v>
+      </c>
+      <c r="B43" s="3">
+        <v>25</v>
       </c>
       <c r="C43" s="5">
-        <v>2019</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" s="3">
+        <v>119</v>
+      </c>
+      <c r="B44" s="5">
         <v>24</v>
       </c>
       <c r="C44" s="5">
-        <v>2003</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B45" s="3">
         <v>24</v>
       </c>
       <c r="C45" s="5">
-        <v>2014</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B46" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C46" s="5">
-        <v>2012</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B47" s="3">
         <v>22</v>
       </c>
       <c r="C47" s="5">
-        <v>2019</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B48" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C48" s="5">
-        <v>2014</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B49" s="3">
         <v>21</v>
       </c>
       <c r="C49" s="5">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B50" s="3">
         <v>21</v>
       </c>
       <c r="C50" s="5">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B51" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C51" s="5">
-        <v>2014</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B52" s="3">
         <v>20</v>
       </c>
       <c r="C52" s="5">
-        <v>2021</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B53" s="3">
         <v>20</v>
@@ -2941,161 +2950,161 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B54" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C54" s="5">
-        <v>2010</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B55" s="3">
         <v>19</v>
       </c>
       <c r="C55" s="5">
-        <v>2014</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B56" s="3">
         <v>19</v>
       </c>
       <c r="C56" s="5">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B57" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57" s="5">
-        <v>2013</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B58" s="3">
         <v>18</v>
       </c>
       <c r="C58" s="5">
-        <v>2021</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B59" s="3">
         <v>18</v>
       </c>
       <c r="C59" s="5">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B60" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C60" s="5">
-        <v>2011</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B61" s="3">
         <v>17</v>
       </c>
       <c r="C61" s="5">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B62" s="3">
         <v>17</v>
       </c>
       <c r="C62" s="5">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B63" s="3">
         <v>17</v>
       </c>
       <c r="C63" s="5">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B64" s="3">
         <v>17</v>
       </c>
       <c r="C64" s="5">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B65" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C65" s="5">
-        <v>2008</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B66" s="3">
         <v>16</v>
       </c>
       <c r="C66" s="5">
-        <v>2012</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B67" s="3">
         <v>16</v>
       </c>
       <c r="C67" s="5">
-        <v>2017</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B68" s="3">
         <v>16</v>
@@ -3106,29 +3115,29 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B69" s="5">
+        <v>177</v>
+      </c>
+      <c r="B69" s="3">
         <v>16</v>
       </c>
       <c r="C69" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B70" s="3">
+        <v>171</v>
+      </c>
+      <c r="B70" s="5">
         <v>16</v>
       </c>
       <c r="C70" s="5">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B71" s="3">
         <v>16</v>
@@ -3139,117 +3148,117 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B72" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C72" s="5">
-        <v>2009</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B73" s="3">
         <v>15</v>
       </c>
       <c r="C73" s="5">
-        <v>2017</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B74" s="3">
         <v>15</v>
       </c>
       <c r="C74" s="5">
-        <v>2022</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B75" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C75" s="5">
-        <v>2002</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B76" s="3">
         <v>14</v>
       </c>
       <c r="C76" s="5">
-        <v>2006</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B77" s="3">
         <v>14</v>
       </c>
       <c r="C77" s="5">
-        <v>2022</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B78" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C78" s="5">
-        <v>1998</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B79" s="3">
         <v>13</v>
       </c>
       <c r="C79" s="5">
-        <v>2004</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B80" s="3">
         <v>13</v>
       </c>
       <c r="C80" s="5">
-        <v>2022</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="B81" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C81" s="5">
-        <v>2001</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B82" s="3">
         <v>12</v>
@@ -3260,31 +3269,31 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B83" s="3">
         <v>12</v>
       </c>
       <c r="C83" s="5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B84" s="3">
         <v>12</v>
       </c>
       <c r="C84" s="5">
-        <v>2006</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B85" s="5">
+        <v>215</v>
+      </c>
+      <c r="B85" s="3">
         <v>12</v>
       </c>
       <c r="C85" s="5">
@@ -3293,117 +3302,117 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B86" s="3">
+        <v>218</v>
+      </c>
+      <c r="B86" s="5">
         <v>12</v>
       </c>
       <c r="C86" s="5">
-        <v>2012</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B87" s="3">
         <v>12</v>
       </c>
       <c r="C87" s="5">
-        <v>2017</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B88" s="3">
         <v>12</v>
       </c>
       <c r="C88" s="5">
-        <v>2023</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="B89" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C89" s="5">
-        <v>2012</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B90" s="3">
         <v>11</v>
       </c>
       <c r="C90" s="5">
-        <v>2023</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B91" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C91" s="5">
-        <v>2013</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="B92" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C92" s="5">
-        <v>2007</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B93" s="3">
         <v>9</v>
       </c>
       <c r="C93" s="5">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B94" s="3">
         <v>9</v>
       </c>
       <c r="C94" s="5">
-        <v>2012</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B95" s="3">
         <v>9</v>
       </c>
       <c r="C95" s="5">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B96" s="3">
         <v>9</v>
@@ -3414,18 +3423,18 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B97" s="3">
         <v>9</v>
       </c>
       <c r="C97" s="5">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B98" s="3">
         <v>9</v>
@@ -3436,216 +3445,216 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B99" s="3">
         <v>9</v>
       </c>
       <c r="C99" s="5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B100" s="3">
         <v>9</v>
       </c>
       <c r="C100" s="5">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B101" s="3">
         <v>9</v>
       </c>
       <c r="C101" s="5">
-        <v>2024</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="B102" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" s="5">
-        <v>2012</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B103" s="3">
         <v>8</v>
       </c>
       <c r="C103" s="5">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B104" s="3">
         <v>8</v>
       </c>
       <c r="C104" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B105" s="3">
         <v>8</v>
       </c>
       <c r="C105" s="5">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B106" s="3">
         <v>8</v>
       </c>
       <c r="C106" s="5">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B107" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" s="5">
-        <v>1996</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B108" s="3">
         <v>7</v>
       </c>
       <c r="C108" s="5">
-        <v>1999</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B109" s="3">
         <v>7</v>
       </c>
       <c r="C109" s="5">
-        <v>2004</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B110" s="3">
         <v>7</v>
       </c>
       <c r="C110" s="5">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B111" s="3">
         <v>7</v>
       </c>
       <c r="C111" s="5">
-        <v>2015</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="B112" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C112" s="5">
-        <v>2001</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B113" s="3">
         <v>6</v>
       </c>
       <c r="C113" s="5">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B114" s="3">
         <v>6</v>
       </c>
       <c r="C114" s="5">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B115" s="3">
         <v>6</v>
       </c>
       <c r="C115" s="5">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B116" s="3">
         <v>6</v>
       </c>
       <c r="C116" s="5">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B117" s="3">
         <v>6</v>
       </c>
       <c r="C117" s="5">
-        <v>2010</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B118" s="3">
         <v>6</v>
@@ -3656,18 +3665,18 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B119" s="3">
         <v>6</v>
       </c>
       <c r="C119" s="5">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B120" s="3">
         <v>6</v>
@@ -3678,7 +3687,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B121" s="3">
         <v>6</v>
@@ -3689,7 +3698,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B122" s="3">
         <v>6</v>
@@ -3700,62 +3709,62 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B123" s="3">
         <v>6</v>
       </c>
       <c r="C123" s="5">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B124" s="3">
         <v>6</v>
       </c>
       <c r="C124" s="5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B125" s="5">
+        <v>294</v>
+      </c>
+      <c r="B125" s="3">
         <v>6</v>
       </c>
       <c r="C125" s="5">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B126" s="3">
+        <v>290</v>
+      </c>
+      <c r="B126" s="5">
         <v>6</v>
       </c>
       <c r="C126" s="5">
-        <v>2022</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>351</v>
+        <v>288</v>
       </c>
       <c r="B127" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C127" s="5">
-        <v>2001</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B128" s="3">
         <v>5</v>
@@ -3766,40 +3775,40 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B129" s="3">
         <v>5</v>
       </c>
       <c r="C129" s="5">
-        <v>2004</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B130" s="3">
         <v>5</v>
       </c>
       <c r="C130" s="5">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B131" s="3">
         <v>5</v>
       </c>
       <c r="C131" s="5">
-        <v>2010</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B132" s="3">
         <v>5</v>
@@ -3810,40 +3819,40 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B133" s="3">
         <v>5</v>
       </c>
       <c r="C133" s="5">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B134" s="3">
         <v>5</v>
       </c>
       <c r="C134" s="5">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B135" s="3">
         <v>5</v>
       </c>
       <c r="C135" s="5">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B136" s="3">
         <v>5</v>
@@ -3854,84 +3863,84 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B137" s="5">
+        <v>334</v>
+      </c>
+      <c r="B137" s="3">
         <v>5</v>
       </c>
       <c r="C137" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B138" s="3">
+        <v>328</v>
+      </c>
+      <c r="B138" s="5">
         <v>5</v>
       </c>
       <c r="C138" s="5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B139" s="3">
         <v>5</v>
       </c>
       <c r="C139" s="5">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="B140" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C140" s="5">
-        <v>2000</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B141" s="3">
         <v>4</v>
       </c>
       <c r="C141" s="5">
-        <v>2004</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B142" s="5">
+        <v>378</v>
+      </c>
+      <c r="B142" s="3">
         <v>4</v>
       </c>
       <c r="C142" s="5">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B143" s="3">
+        <v>375</v>
+      </c>
+      <c r="B143" s="5">
         <v>4</v>
       </c>
       <c r="C143" s="5">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B144" s="3">
         <v>4</v>
@@ -3942,29 +3951,29 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B145" s="3">
         <v>4</v>
       </c>
       <c r="C145" s="5">
-        <v>2010</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B146" s="3">
         <v>4</v>
       </c>
       <c r="C146" s="5">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B147" s="3">
         <v>4</v>
@@ -3975,29 +3984,29 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B148" s="3">
         <v>4</v>
       </c>
       <c r="C148" s="5">
-        <v>2022</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B149" s="3">
         <v>4</v>
       </c>
       <c r="C149" s="5">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B150" s="3">
         <v>4</v>
@@ -4008,53 +4017,53 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="B151" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C151" s="5">
-        <v>1999</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B152" s="3">
         <v>3</v>
       </c>
       <c r="C152" s="5">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B153" s="3">
         <v>3</v>
       </c>
       <c r="C153" s="5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B154" s="3">
         <v>3</v>
       </c>
       <c r="C154" s="5">
-        <v>2006</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B155" s="5">
+        <v>401</v>
+      </c>
+      <c r="B155" s="3">
         <v>3</v>
       </c>
       <c r="C155" s="5">
@@ -4063,9 +4072,9 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B156" s="3">
+        <v>403</v>
+      </c>
+      <c r="B156" s="5">
         <v>3</v>
       </c>
       <c r="C156" s="5">
@@ -4074,29 +4083,29 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="B157" s="3">
         <v>3</v>
       </c>
       <c r="C157" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B158" s="3">
         <v>3</v>
       </c>
       <c r="C158" s="5">
-        <v>2011</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B159" s="3">
         <v>3</v>
@@ -4107,40 +4116,40 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B160" s="3">
         <v>3</v>
       </c>
       <c r="C160" s="5">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B161" s="3">
         <v>3</v>
       </c>
       <c r="C161" s="5">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B162" s="3">
         <v>3</v>
       </c>
       <c r="C162" s="5">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B163" s="3">
         <v>3</v>
@@ -4151,42 +4160,42 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B164" s="3">
         <v>3</v>
       </c>
       <c r="C164" s="5">
-        <v>2023</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B165" s="3">
         <v>3</v>
       </c>
       <c r="C165" s="5">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>447</v>
+        <v>382</v>
       </c>
       <c r="B166" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C166" s="5">
-        <v>2000</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B167" s="5">
+        <v>447</v>
+      </c>
+      <c r="B167" s="3">
         <v>2</v>
       </c>
       <c r="C167" s="5">
@@ -4195,29 +4204,29 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B168" s="3">
+        <v>449</v>
+      </c>
+      <c r="B168" s="5">
         <v>2</v>
       </c>
       <c r="C168" s="5">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B169" s="3">
         <v>2</v>
       </c>
       <c r="C169" s="5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B170" s="3">
         <v>2</v>
@@ -4228,53 +4237,53 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B171" s="3">
         <v>2</v>
       </c>
       <c r="C171" s="5">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B172" s="3">
         <v>2</v>
       </c>
       <c r="C172" s="5">
-        <v>2008</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B173" s="3">
         <v>2</v>
       </c>
       <c r="C173" s="5">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B174" s="3">
         <v>2</v>
       </c>
       <c r="C174" s="5">
-        <v>2012</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B175" s="5">
+        <v>428</v>
+      </c>
+      <c r="B175" s="3">
         <v>2</v>
       </c>
       <c r="C175" s="5">
@@ -4283,42 +4292,42 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B176" s="3">
+        <v>431</v>
+      </c>
+      <c r="B176" s="5">
         <v>2</v>
       </c>
       <c r="C176" s="5">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B177" s="3">
         <v>2</v>
       </c>
       <c r="C177" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B178" s="3">
         <v>2</v>
       </c>
       <c r="C178" s="5">
-        <v>2024</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B179" s="5">
+        <v>415</v>
+      </c>
+      <c r="B179" s="3">
         <v>2</v>
       </c>
       <c r="C179" s="5">
@@ -4327,51 +4336,51 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B180" s="3">
-        <v>1</v>
+        <v>418</v>
+      </c>
+      <c r="B180" s="5">
+        <v>2</v>
       </c>
       <c r="C180" s="5">
-        <v>2000</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B181" s="3">
         <v>1</v>
       </c>
       <c r="C181" s="5">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B182" s="3">
         <v>1</v>
       </c>
       <c r="C182" s="5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
       </c>
       <c r="C183" s="5">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B184" s="3">
         <v>1</v>
@@ -4382,18 +4391,18 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="B185" s="3">
         <v>1</v>
       </c>
       <c r="C185" s="5">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B186" s="3">
         <v>1</v>
@@ -4404,84 +4413,84 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B187" s="5">
+        <v>497</v>
+      </c>
+      <c r="B187" s="3">
         <v>1</v>
       </c>
       <c r="C187" s="5">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B188" s="3">
+        <v>491</v>
+      </c>
+      <c r="B188" s="5">
         <v>1</v>
       </c>
       <c r="C188" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B189" s="3">
         <v>1</v>
       </c>
       <c r="C189" s="5">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B190" s="3">
         <v>1</v>
       </c>
       <c r="C190" s="5">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B191" s="3">
         <v>1</v>
       </c>
       <c r="C191" s="5">
-        <v>2016</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B192" s="3">
         <v>1</v>
       </c>
       <c r="C192" s="5">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B193" s="3">
         <v>1</v>
       </c>
       <c r="C193" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B194" s="3">
         <v>1</v>
@@ -4492,18 +4501,18 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="B195" s="3">
         <v>1</v>
       </c>
       <c r="C195" s="5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B196" s="3">
         <v>1</v>
@@ -4514,7 +4523,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B197" s="3">
         <v>1</v>
@@ -4525,18 +4534,18 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="B198" s="3">
         <v>1</v>
       </c>
       <c r="C198" s="5">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B199" s="3">
         <v>1</v>
@@ -4547,20 +4556,20 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="B200" s="3">
         <v>1</v>
       </c>
       <c r="C200" s="5">
-        <v>2024</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B201" s="5">
+        <v>451</v>
+      </c>
+      <c r="B201" s="3">
         <v>1</v>
       </c>
       <c r="C201" s="5">
@@ -4569,9 +4578,9 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B202" s="3">
+        <v>454</v>
+      </c>
+      <c r="B202" s="5">
         <v>1</v>
       </c>
       <c r="C202" s="5">
@@ -4580,7 +4589,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B203" s="3">
         <v>1</v>
@@ -4591,16 +4600,18 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="B204" s="3"/>
+        <v>461</v>
+      </c>
+      <c r="B204" s="3">
+        <v>1</v>
+      </c>
       <c r="C204" s="5">
-        <v>2002</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B205" s="3"/>
       <c r="C205" s="5">
@@ -4609,7 +4620,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="5">
@@ -4618,7 +4629,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B207" s="3"/>
       <c r="C207" s="5">
@@ -4627,7 +4638,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B208" s="3"/>
       <c r="C208" s="5">
@@ -4636,7 +4647,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B209" s="3"/>
       <c r="C209" s="5">
@@ -4645,16 +4656,16 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>615</v>
+        <v>640</v>
       </c>
       <c r="B210" s="3"/>
       <c r="C210" s="5">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B211" s="3"/>
       <c r="C211" s="5">
@@ -4663,7 +4674,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B212" s="3"/>
       <c r="C212" s="5">
@@ -4672,7 +4683,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="5">
@@ -4681,16 +4692,16 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="B214" s="3"/>
       <c r="C214" s="5">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B215" s="3"/>
       <c r="C215" s="5">
@@ -4699,7 +4710,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B216" s="3"/>
       <c r="C216" s="5">
@@ -4708,16 +4719,16 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="B217" s="3"/>
       <c r="C217" s="5">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>113</v>
+        <v>594</v>
       </c>
       <c r="B218" s="3"/>
       <c r="C218" s="5">
@@ -4726,7 +4737,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>599</v>
+        <v>113</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="5">
@@ -4735,7 +4746,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B220" s="3"/>
       <c r="C220" s="5">
@@ -4744,7 +4755,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B221" s="3"/>
       <c r="C221" s="5">
@@ -4753,7 +4764,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B222" s="3"/>
       <c r="C222" s="5">
@@ -4762,16 +4773,16 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="B223" s="3"/>
       <c r="C223" s="5">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B224" s="3"/>
       <c r="C224" s="5">
@@ -4780,7 +4791,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B225" s="3"/>
       <c r="C225" s="5">
@@ -4789,16 +4800,16 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="B226" s="3"/>
       <c r="C226" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="5">
@@ -4807,25 +4818,25 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B228" s="3"/>
       <c r="C228" s="5">
-        <v>2011</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B229" s="3"/>
       <c r="C229" s="5">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B230" s="3"/>
       <c r="C230" s="5">
@@ -4834,16 +4845,16 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="B231" s="3"/>
       <c r="C231" s="5">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B232" s="3"/>
       <c r="C232" s="5">
@@ -4852,7 +4863,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B233" s="3"/>
       <c r="C233" s="5">
@@ -4861,7 +4872,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B234" s="3"/>
       <c r="C234" s="5">
@@ -4870,16 +4881,16 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B236" s="3"/>
       <c r="C236" s="5">
@@ -4888,7 +4899,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B237" s="3"/>
       <c r="C237" s="5">
@@ -4897,7 +4908,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B238" s="3"/>
       <c r="C238" s="5">
@@ -4906,7 +4917,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B239" s="3"/>
       <c r="C239" s="5">
@@ -4915,7 +4926,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B240" s="3"/>
       <c r="C240" s="5">
@@ -4924,7 +4935,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="5">
@@ -4933,16 +4944,16 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="B242" s="3"/>
       <c r="C242" s="5">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B243" s="3"/>
       <c r="C243" s="5">
@@ -4951,7 +4962,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B244" s="3"/>
       <c r="C244" s="5">
@@ -4960,16 +4971,16 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="B245" s="3"/>
       <c r="C245" s="5">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B246" s="3"/>
       <c r="C246" s="5">
@@ -4978,34 +4989,34 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B247" s="3"/>
       <c r="C247" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B248" s="3"/>
       <c r="C248" s="5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B249" s="3"/>
       <c r="C249" s="5">
-        <v>2023</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B250" s="3"/>
       <c r="C250" s="5">
@@ -5014,16 +5025,16 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="B251" s="3"/>
       <c r="C251" s="5">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B252" s="3"/>
       <c r="C252" s="5">
@@ -5032,7 +5043,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B253" s="3"/>
       <c r="C253" s="5">
@@ -5041,7 +5052,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B254" s="3"/>
       <c r="C254" s="5">
@@ -5050,16 +5061,25 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B255" s="3"/>
       <c r="C255" s="5">
         <v>2024</v>
       </c>
     </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B256" s="3"/>
+      <c r="C256" s="5">
+        <v>2024</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C255">
-    <sortCondition descending="1" ref="B1:B255"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C256">
+    <sortCondition descending="1" ref="B2:B256"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
